--- a/biology/Botanique/Couverture_forestière/Couverture_forestière.xlsx
+++ b/biology/Botanique/Couverture_forestière/Couverture_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couverture_foresti%C3%A8re</t>
+          <t>Couverture_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couverture forestière est la part de forêt qui couvre une superficie donnée. Il peut être mesuré de manière relative (en pourcentage) ou absolue (en kilomètres carrés). Au niveau mondial, près d'un tiers de la surface terrestre est couverte de forêts, dont 4 à 5 milliards d'hectares composés de forêts à canopée fermée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couverture forestière est la part de forêt qui couvre une superficie donnée. Il peut être mesuré de manière relative (en pourcentage) ou absolue (en kilomètres carrés). Au niveau mondial, près d'un tiers de la surface terrestre est couverte de forêts, dont 4 à 5 milliards d'hectares composés de forêts à canopée fermée.
 </t>
         </is>
       </c>
